--- a/demo/WACS/wacs_new1.xlsx
+++ b/demo/WACS/wacs_new1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FILES\PROJECTS\pandafp\demo\WACS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D09BF1-722A-474F-9F13-EE830A0B263B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369C93BE-893C-4CD7-95F2-EA544176E256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2982,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2150EC4-E85C-4991-B963-A7A90BDF98B5}">
   <dimension ref="A1:H1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1060" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1076" sqref="C1076"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5862,8 +5862,8 @@
       <c r="D125" t="s">
         <v>31</v>
       </c>
-      <c r="E125">
-        <v>-1</v>
+      <c r="E125" s="9">
+        <v>25</v>
       </c>
       <c r="F125">
         <v>0.1</v>
@@ -5885,8 +5885,8 @@
       <c r="D126" t="s">
         <v>31</v>
       </c>
-      <c r="E126">
-        <v>-1</v>
+      <c r="E126" s="9">
+        <v>26</v>
       </c>
       <c r="F126">
         <v>0.1</v>
@@ -5908,8 +5908,8 @@
       <c r="D127" t="s">
         <v>31</v>
       </c>
-      <c r="E127">
-        <v>-1</v>
+      <c r="E127" s="9">
+        <v>28</v>
       </c>
       <c r="F127">
         <v>0.1</v>
@@ -8691,8 +8691,8 @@
       <c r="D248" t="s">
         <v>31</v>
       </c>
-      <c r="E248">
-        <v>-1</v>
+      <c r="E248" s="9">
+        <v>25</v>
       </c>
       <c r="F248" s="3">
         <v>0.1</v>
@@ -8714,8 +8714,8 @@
       <c r="D249" t="s">
         <v>31</v>
       </c>
-      <c r="E249">
-        <v>-1</v>
+      <c r="E249" s="9">
+        <v>26</v>
       </c>
       <c r="F249" s="3">
         <v>0.1</v>
@@ -8737,8 +8737,8 @@
       <c r="D250" t="s">
         <v>31</v>
       </c>
-      <c r="E250">
-        <v>-1</v>
+      <c r="E250" s="9">
+        <v>28</v>
       </c>
       <c r="F250" s="3">
         <v>0.1</v>
@@ -17787,7 +17787,7 @@
         <v>203</v>
       </c>
       <c r="E612">
-        <v>-1</v>
+        <v>11816601631</v>
       </c>
       <c r="F612" s="3">
         <v>0</v>
@@ -17813,7 +17813,7 @@
         <v>203</v>
       </c>
       <c r="E613">
-        <v>-1</v>
+        <v>11916601636</v>
       </c>
       <c r="F613" s="3">
         <v>0</v>
@@ -18567,7 +18567,7 @@
         <v>203</v>
       </c>
       <c r="E642">
-        <v>-1</v>
+        <v>148100004799</v>
       </c>
       <c r="F642" s="3">
         <v>0</v>
@@ -21635,7 +21635,7 @@
         <v>203</v>
       </c>
       <c r="E760">
-        <v>-1</v>
+        <v>11816601631</v>
       </c>
       <c r="F760" s="3">
         <v>0</v>
@@ -21661,7 +21661,7 @@
         <v>203</v>
       </c>
       <c r="E761">
-        <v>-1</v>
+        <v>11916601636</v>
       </c>
       <c r="F761" s="3">
         <v>0</v>
@@ -22415,7 +22415,7 @@
         <v>203</v>
       </c>
       <c r="E790">
-        <v>-1</v>
+        <v>148100004799</v>
       </c>
       <c r="F790" s="3">
         <v>0</v>
@@ -26263,7 +26263,7 @@
         <v>203</v>
       </c>
       <c r="E938">
-        <v>-1</v>
+        <v>148100004799</v>
       </c>
       <c r="F938" s="3">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>203</v>
       </c>
       <c r="E1056">
-        <v>-1</v>
+        <v>11816601631</v>
       </c>
       <c r="F1056" s="3">
         <v>0</v>
@@ -29357,7 +29357,7 @@
         <v>203</v>
       </c>
       <c r="E1057">
-        <v>-1</v>
+        <v>11916601636</v>
       </c>
       <c r="F1057" s="3">
         <v>0</v>
@@ -30111,7 +30111,7 @@
         <v>203</v>
       </c>
       <c r="E1086">
-        <v>-1</v>
+        <v>148100004799</v>
       </c>
       <c r="F1086" s="3">
         <v>0</v>
